--- a/WinAppMazeGame/WinAppMazeGame/bin/Debug/Resources/Laberintos-2D.xlsx
+++ b/WinAppMazeGame/WinAppMazeGame/bin/Debug/Resources/Laberintos-2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
     <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -449,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -482,6 +483,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,8 +1308,8 @@
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>5863</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>187569</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1647,13 +1649,13 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="51" width="3.5546875" customWidth="1"/>
+    <col min="1" max="51" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -1733,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6"/>
@@ -1811,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="7"/>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1967,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
@@ -2045,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
@@ -2201,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
@@ -2279,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
@@ -2357,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
@@ -2435,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
@@ -2513,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
@@ -2591,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -2669,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
@@ -2746,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
@@ -2824,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="6"/>
@@ -2902,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
@@ -2980,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3058,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3138,10 +3140,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3157,13 +3159,13 @@
       <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="110" width="3.5546875" customWidth="1"/>
+    <col min="1" max="110" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE2">
         <v>0</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE3">
         <v>0</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE4">
         <v>0</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE5">
         <v>0</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE6">
         <v>0</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE7">
         <v>0</v>
       </c>
@@ -3421,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE8">
         <v>0</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE9">
         <v>0</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE10">
         <v>0</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE11">
         <v>0</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE12">
         <v>0</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE13">
         <v>0</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE14">
         <v>0</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE15">
         <v>0</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE16">
         <v>0</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE17">
         <v>0</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="31:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE18">
         <v>0</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE19">
         <v>0</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE20">
         <v>0</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE21">
         <v>0</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE22">
         <v>0</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE23">
         <v>0</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE24">
         <v>0</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE25">
         <v>0</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="26" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE26">
         <v>0</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="27" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE27">
         <v>0</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="28" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE28">
         <v>0</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="29" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE29">
         <v>0</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="30" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE30">
         <v>0</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="31" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE31">
         <v>0</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="32" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE32">
         <v>0</v>
       </c>
@@ -3990,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="31:59" x14ac:dyDescent="0.3">
+    <row r="33" spans="31:59" x14ac:dyDescent="0.25">
       <c r="AE33">
         <v>0</v>
       </c>
@@ -4094,13 +4096,13 @@
       <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="82" width="2.77734375" customWidth="1"/>
+    <col min="1" max="82" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4178,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -4256,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4334,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -4412,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="2"/>
@@ -4490,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
@@ -4568,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="2"/>
@@ -4646,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -4724,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -4802,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="E11" s="2"/>
@@ -4879,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
@@ -4957,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="E13" s="2"/>
@@ -5034,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
       <c r="D14" s="2"/>
@@ -5112,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
       <c r="E15" s="2"/>
@@ -5189,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="2"/>
@@ -5267,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -5345,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -5423,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -5501,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5579,139 +5581,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5727,16 +5729,16 @@
       <selection activeCell="CN34" sqref="CN34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="100" width="2.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="100" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:94" x14ac:dyDescent="0.25">
       <c r="AI1" s="12"/>
     </row>
-    <row r="2" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5817,7 +5819,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
@@ -5901,7 +5903,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -5986,7 +5988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -6121,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="2"/>
@@ -6257,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
@@ -6395,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -6530,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
@@ -6665,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -6800,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2"/>
@@ -6935,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
@@ -7070,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -7205,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -7340,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -7475,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:94" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -7610,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
@@ -7745,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -7880,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -8015,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8150,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:98" x14ac:dyDescent="0.25">
       <c r="BX21" s="1">
         <v>0</v>
       </c>
@@ -8209,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:98" x14ac:dyDescent="0.25">
       <c r="BX22" s="1">
         <v>0</v>
       </c>
@@ -8268,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:98" x14ac:dyDescent="0.25">
       <c r="BX23" s="1">
         <v>0</v>
       </c>
@@ -8327,12 +8329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:98" x14ac:dyDescent="0.25">
       <c r="CM28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:98" x14ac:dyDescent="0.25">
       <c r="CB31" s="1">
         <v>0</v>
       </c>
@@ -8391,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:98" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:98" x14ac:dyDescent="0.25">
       <c r="CB32" s="1">
         <v>0</v>
       </c>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="33" spans="77:98" x14ac:dyDescent="0.25">
       <c r="BY33" t="s">
         <v>92</v>
       </c>
@@ -8512,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="34" spans="77:98" x14ac:dyDescent="0.25">
       <c r="BY34" t="s">
         <v>54</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="35" spans="77:98" x14ac:dyDescent="0.25">
       <c r="BY35" t="s">
         <v>93</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="36" spans="77:98" x14ac:dyDescent="0.25">
       <c r="BY36" t="s">
         <v>68</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="37" spans="77:98" x14ac:dyDescent="0.25">
       <c r="BY37" t="s">
         <v>94</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="38" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB38" s="1">
         <v>0</v>
       </c>
@@ -8819,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="39" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB39" s="1">
         <v>0</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="40" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB40" s="1">
         <v>0</v>
       </c>
@@ -8937,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="41" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB41" s="1">
         <v>0</v>
       </c>
@@ -8996,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="42" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB42" s="1">
         <v>0</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="43" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB43" s="1">
         <v>0</v>
       </c>
@@ -9114,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="44" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB44" s="1">
         <v>0</v>
       </c>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="45" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB45" s="1">
         <v>0</v>
       </c>
@@ -9232,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="46" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB46" s="1">
         <v>0</v>
       </c>
@@ -9291,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="47" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB47" s="1">
         <v>0</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="77:98" x14ac:dyDescent="0.3">
+    <row r="48" spans="77:98" x14ac:dyDescent="0.25">
       <c r="CB48" s="1">
         <v>0</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="80:98" x14ac:dyDescent="0.3">
+    <row r="49" spans="80:98" x14ac:dyDescent="0.25">
       <c r="CB49" s="1">
         <v>0</v>
       </c>
@@ -9482,17 +9484,15 @@
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="2.77734375" customWidth="1"/>
-    <col min="26" max="26" width="2.6640625" customWidth="1"/>
-    <col min="27" max="48" width="2.77734375" customWidth="1"/>
+    <col min="1" max="48" width="2.7109375" customWidth="1"/>
     <col min="49" max="49" width="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="78" width="2.77734375" customWidth="1"/>
+    <col min="50" max="78" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -9735,7 +9735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="2"/>
@@ -9904,7 +9904,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2"/>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -10684,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
@@ -10761,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10995,14 +10995,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11018,13 +11018,13 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="108" width="2.77734375" customWidth="1"/>
+    <col min="1" max="108" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
       <c r="D6" s="2"/>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -11570,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2"/>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -12116,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
@@ -12272,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -12428,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -12506,8 +12506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -12535,17 +12535,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -12553,17 +12553,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -12571,276 +12571,276 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12852,18 +12852,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -12912,12 +12912,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>18</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>23</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>30.737704918032787</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>584</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>48</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>49</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>52</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>56</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -13132,27 +13132,27 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>70</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>72</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>77</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>80</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -13231,17 +13231,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AX145"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AT12" sqref="AT12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="146" width="2.77734375" customWidth="1"/>
+    <col min="1" max="146" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
       <c r="D8" s="2"/>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
       <c r="D9" s="2"/>
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="2"/>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2"/>
@@ -14024,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -14102,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2"/>
@@ -14180,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -14336,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -14491,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -14724,17 +14724,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>3</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -14770,157 +14770,2009 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0</v>
+      </c>
       <c r="AX28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="1"/>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="28">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="1"/>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0</v>
+      </c>
       <c r="AX30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="1"/>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0</v>
+      </c>
       <c r="AX31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="1"/>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0</v>
+      </c>
       <c r="AX32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="1"/>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0</v>
+      </c>
       <c r="AX33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="50:50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="1"/>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="1"/>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="1"/>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="1"/>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="1"/>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="1"/>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="1"/>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="1"/>
+      <c r="Y41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="1"/>
+      <c r="Y42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="1"/>
+      <c r="Y43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="1"/>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="1"/>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="28">
+        <v>3</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>